--- a/AdminProyectos/Planeación del proyecto/Procesos/Administración de Riesgos/WT-001_BD de Riesgos.xlsx
+++ b/AdminProyectos/Planeación del proyecto/Procesos/Administración de Riesgos/WT-001_BD de Riesgos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTRADA\Desktop\Plantillas_Admón_Riesgos_2016\Plantillas_Admón_Riesgos_2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WT\AdminProyectos\Planeación del proyecto\Procesos\Administración de Riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="524">
   <si>
     <t>Versión</t>
   </si>
@@ -1187,9 +1187,6 @@
     <t xml:space="preserve">Utilizar hardware adicional </t>
   </si>
   <si>
-    <t>Monitoriar el tiempo restanate en la licencia y adquirir una nueva.</t>
-  </si>
-  <si>
     <t>Analizar y adquirir software necesario para el proyecto</t>
   </si>
   <si>
@@ -1233,13 +1230,376 @@
   </si>
   <si>
     <t>Se modificó en la hoja Medidas_Mitigación_Contingencia ya que se agregaron las 80 medidas de mitigación y contingencia</t>
+  </si>
+  <si>
+    <t>MMC_021</t>
+  </si>
+  <si>
+    <t>MMC_022</t>
+  </si>
+  <si>
+    <t>MMC_023</t>
+  </si>
+  <si>
+    <t>MMC_024</t>
+  </si>
+  <si>
+    <t>MMC_025</t>
+  </si>
+  <si>
+    <t>MMC_026</t>
+  </si>
+  <si>
+    <t>MMC_027</t>
+  </si>
+  <si>
+    <t>MMC_028</t>
+  </si>
+  <si>
+    <t>MMC_029</t>
+  </si>
+  <si>
+    <t>MMC_030</t>
+  </si>
+  <si>
+    <t>MMC_031</t>
+  </si>
+  <si>
+    <t>MMC_032</t>
+  </si>
+  <si>
+    <t>MMC_033</t>
+  </si>
+  <si>
+    <t>MMC_034</t>
+  </si>
+  <si>
+    <t>MMC_035</t>
+  </si>
+  <si>
+    <t>MMC_036</t>
+  </si>
+  <si>
+    <t>MMC_037</t>
+  </si>
+  <si>
+    <t>MMC_038</t>
+  </si>
+  <si>
+    <t>MMC_039</t>
+  </si>
+  <si>
+    <t>MMC_040</t>
+  </si>
+  <si>
+    <t>MMC_041</t>
+  </si>
+  <si>
+    <t>MMC_042</t>
+  </si>
+  <si>
+    <t>MMC_043</t>
+  </si>
+  <si>
+    <t>MMC_044</t>
+  </si>
+  <si>
+    <t>MMC_045</t>
+  </si>
+  <si>
+    <t>MMC_046</t>
+  </si>
+  <si>
+    <t>MMC_047</t>
+  </si>
+  <si>
+    <t>MMC_048</t>
+  </si>
+  <si>
+    <t>MMC_049</t>
+  </si>
+  <si>
+    <t>MMC_050</t>
+  </si>
+  <si>
+    <t>MMC_051</t>
+  </si>
+  <si>
+    <t>Dar un insentivo a los recursos del proyecto</t>
+  </si>
+  <si>
+    <t>Mejorar el proceso de contratación del personal</t>
+  </si>
+  <si>
+    <t>Crear un entorno de trabajo optimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendarizar fumigaciones de instalaciones </t>
+  </si>
+  <si>
+    <t>Asignar el equipo y el personal para la serguridad en los diferentes departamentos</t>
+  </si>
+  <si>
+    <t>Implementar reguladores para evitar las fuertes descargas</t>
+  </si>
+  <si>
+    <t>Actualizar las campañas de marketing en al empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tener hardware propio de la empresa </t>
+  </si>
+  <si>
+    <t>Establecer el precio del proyecto en moneda nacional</t>
+  </si>
+  <si>
+    <t>Implementar un proceso de calidad.</t>
+  </si>
+  <si>
+    <t>Delimitación la cantidad de herramientas del Proceso de Calidad a utilizar.</t>
+  </si>
+  <si>
+    <t>Apegarse a los procesos que te establece un modelos de calidad a utilizar.</t>
+  </si>
+  <si>
+    <t>Ver las fechas en el WBS para asignar más tiempo a los requerimientos</t>
+  </si>
+  <si>
+    <t>Implementar un proceso de pruebas.</t>
+  </si>
+  <si>
+    <t>Delimitación la cantidad de herramientas del Proceso de Pruebas a utilizar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitorea el plan cm. </t>
+  </si>
+  <si>
+    <t>Priorizar los requerimiento utilizado la técnica MoSCoW, permitiendo identificar cuales requerimientos son fundamentales para el éxito del proyecto.</t>
+  </si>
+  <si>
+    <t>Gestionar y Controlar las versiones del repositorio</t>
+  </si>
+  <si>
+    <t>Identificar los requerimientos utilizando técnicas de recoleccion de datos en proyectos anteriores.</t>
+  </si>
+  <si>
+    <t>Implementar una matriz de trazabilidad de los requerimientos</t>
+  </si>
+  <si>
+    <t>MMC_052</t>
+  </si>
+  <si>
+    <t>MMC_053</t>
+  </si>
+  <si>
+    <t>MMC_054</t>
+  </si>
+  <si>
+    <t>MMC_055</t>
+  </si>
+  <si>
+    <t>MMC_056</t>
+  </si>
+  <si>
+    <t>MMC_057</t>
+  </si>
+  <si>
+    <t>MMC_058</t>
+  </si>
+  <si>
+    <t>MMC_059</t>
+  </si>
+  <si>
+    <t>MMC_060</t>
+  </si>
+  <si>
+    <t>MMC_061</t>
+  </si>
+  <si>
+    <t>MMC_062</t>
+  </si>
+  <si>
+    <t>MMC_063</t>
+  </si>
+  <si>
+    <t>MMC_064</t>
+  </si>
+  <si>
+    <t>MMC_065</t>
+  </si>
+  <si>
+    <t>MMC_066</t>
+  </si>
+  <si>
+    <t>MMC_067</t>
+  </si>
+  <si>
+    <t>MMC_068</t>
+  </si>
+  <si>
+    <t>MMC_069</t>
+  </si>
+  <si>
+    <t>MMC_070</t>
+  </si>
+  <si>
+    <t>MMC_071</t>
+  </si>
+  <si>
+    <t>MMC_072</t>
+  </si>
+  <si>
+    <t>MMC_073</t>
+  </si>
+  <si>
+    <t>MMC_074</t>
+  </si>
+  <si>
+    <t>MMC_075</t>
+  </si>
+  <si>
+    <t>MMC_076</t>
+  </si>
+  <si>
+    <t>MMC_077</t>
+  </si>
+  <si>
+    <t>MMC_078</t>
+  </si>
+  <si>
+    <t>MMC_079</t>
+  </si>
+  <si>
+    <t>MMC_080</t>
+  </si>
+  <si>
+    <t>Rotación de roles dentro del proyecto</t>
+  </si>
+  <si>
+    <t>Realizar una reunión exponiendo la importancia de que halla una participación activa de todos los involucrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitar a los recursos del proyecto en el proceso administración  </t>
+  </si>
+  <si>
+    <t>Monitorear todos los entregables generados por el proyecto</t>
+  </si>
+  <si>
+    <t>Realizar capacitación a los nuevos empleados</t>
+  </si>
+  <si>
+    <t>Realizar una investigación de costos directos e indirectos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso temporal de los recursos humanos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar ajustes necesarios para que la aplicación se ajuste al software </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar una reevaluación sobre los requerimientos no funcionales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar una reevaluación sobre los requerimientos funcionales </t>
+  </si>
+  <si>
+    <t>Recolectar las razones por las cuales la respuesta es lenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizar software alternativo para la solución </t>
+  </si>
+  <si>
+    <t>Establer en el alcance el uso de tecnologías conocidas y manejadas para el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>Establecer el proceso del ciclo de reviciónes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establer en el alcance el o los lenguajes de programacón a utilizar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despues del analisis realizar una reunion con el cliente para determinar que los requerimientos son los requeridos por el cliente </t>
+  </si>
+  <si>
+    <t>Definir las herramientas de software a utilizar para el proyecto</t>
+  </si>
+  <si>
+    <t>Cambiar las herramientas a utilizar en el proyecto por algunas ya utilizadas</t>
+  </si>
+  <si>
+    <t>Seguir un modelo de calidad de desarrollo de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitorear que los productos concuerden con los requerimientos no funcionales </t>
+  </si>
+  <si>
+    <t>Actualizar el calendario del proyecto</t>
+  </si>
+  <si>
+    <t>Tener constante comunicación con el cliente directo</t>
+  </si>
+  <si>
+    <t>Realizar un plan de revisiones para el proyecto</t>
+  </si>
+  <si>
+    <t>Dar holgura realistas entre las actividades del proyecto</t>
+  </si>
+  <si>
+    <t>Realizar los  planes de contingencia para cada área del proyecto</t>
+  </si>
+  <si>
+    <t>Realizar reuniones entre el cliente y el líder del proyecto para establecer el alcance</t>
+  </si>
+  <si>
+    <t>De acuerdo a experiencias pasadas realizar la planeación de las actividades según el tiempo del proyecto</t>
+  </si>
+  <si>
+    <t>Asignar los sueldos conforme a horas o días según el tipo de proyecto y rol a desempeñar</t>
+  </si>
+  <si>
+    <t>Negociar los alcances del proyecto bajo un criterio más realista</t>
+  </si>
+  <si>
+    <t>Utilizar plantillas de sistema y/o documentación desarrolladas por la empresa</t>
+  </si>
+  <si>
+    <t>Realizar un calendario con las actividades definidas en tiempo y hora</t>
+  </si>
+  <si>
+    <t>Que los miembros del equipo estén comprometidos para el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>Realizar entrevistas de acuerdo a los perfiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contar con señalamientos de prevención de accidentes </t>
+  </si>
+  <si>
+    <t>Manejar diversos tipos de contratos dependiendo de los proyectos</t>
+  </si>
+  <si>
+    <t>Realizar auditorias de seguridad</t>
+  </si>
+  <si>
+    <t>Establecer los procesos de cambios en el proyecto y darlos a conocer a los miembros del equipo</t>
+  </si>
+  <si>
+    <t>Dar confianza a los miembros del equipo para que implementen sus habilidades en el proyecto</t>
+  </si>
+  <si>
+    <t>Dar platicas de motivación personal y laboral</t>
+  </si>
+  <si>
+    <t>Establecimiento de políticas y reglas dentro del proyecto</t>
+  </si>
+  <si>
+    <t>Monitoriar el tiempo restante en la licencia y adquirir una nueva.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1277,6 +1637,12 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1362,10 +1728,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1441,15 +1808,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1465,9 +1823,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2083,10 +2469,10 @@
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="6"/>
@@ -2134,10 +2520,10 @@
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
@@ -2180,12 +2566,12 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -2220,13 +2606,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2248,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A37" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2804,7 +3190,7 @@
       <c r="B50" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="35" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2815,7 +3201,7 @@
       <c r="B51" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="35" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2826,7 +3212,7 @@
       <c r="B52" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2837,7 +3223,7 @@
       <c r="B53" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="35" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2848,7 +3234,7 @@
       <c r="B54" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="35" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2859,7 +3245,7 @@
       <c r="B55" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="35" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2870,7 +3256,7 @@
       <c r="B56" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="35" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2881,7 +3267,7 @@
       <c r="B57" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="35" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2947,7 +3333,7 @@
       <c r="B63" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="35" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2958,7 +3344,7 @@
       <c r="B64" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="35" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2991,7 +3377,7 @@
       <c r="B67" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="35" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3024,7 +3410,7 @@
       <c r="B70" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="35" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3046,7 +3432,7 @@
       <c r="B72" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="35" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3101,7 +3487,7 @@
       <c r="B77" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="35" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3123,7 +3509,7 @@
       <c r="B79" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="35" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3134,7 +3520,7 @@
       <c r="B80" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="35" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3156,7 +3542,7 @@
       <c r="B82" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="35" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3178,7 +3564,7 @@
       <c r="B84" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="35" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3189,7 +3575,7 @@
       <c r="B85" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="35" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3200,7 +3586,7 @@
       <c r="B86" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="35" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3211,7 +3597,7 @@
       <c r="B87" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="35" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3222,7 +3608,7 @@
       <c r="B88" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="35" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4130,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4241,7 +4627,7 @@
         <v>362</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4251,7 +4637,7 @@
       <c r="B11" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="31" t="s">
         <v>374</v>
       </c>
     </row>
@@ -4262,7 +4648,7 @@
       <c r="B12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="32" t="s">
         <v>387</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -4276,8 +4662,8 @@
       <c r="B13" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>388</v>
+      <c r="C13" s="33" t="s">
+        <v>523</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -4290,7 +4676,7 @@
       <c r="B14" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4302,7 +4688,7 @@
         <v>362</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4313,7 +4699,7 @@
         <v>362</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4346,11 +4732,11 @@
         <v>27</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="34" t="s">
         <v>377</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -4361,240 +4747,783 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="34" t="s">
         <v>378</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>362</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="34" t="s">
         <v>379</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="34" t="s">
         <v>380</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>362</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="34" t="s">
         <v>381</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>362</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="34" t="s">
         <v>382</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>362</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="34" t="s">
         <v>383</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>362</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="34" t="s">
         <v>384</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>362</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="34" t="s">
         <v>385</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>362</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="34" t="s">
         <v>386</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>362</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="15"/>
+      <c r="A42" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="15"/>
+      <c r="A43" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="15"/>
+      <c r="A44" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-    </row>
-    <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="34"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="34"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="16"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="16"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="16"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="16"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="16"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -4603,7 +5532,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B88">
       <formula1>"Mitigación, Contingencia"</formula1>
     </dataValidation>
   </dataValidations>
